--- a/src/attributions/attributions_ig_traj_18.xlsx
+++ b/src/attributions/attributions_ig_traj_18.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,127 +1573,127 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.005477941338775934</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02388228433594805</v>
+        <v>0.04812546559841871</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09874548237915093</v>
+        <v>-0.1292359597042983</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1174367761372651</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.02997226516312941</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1048484544266653</v>
+        <v>0.006380989567265621</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002822297853439297</v>
+        <v>-0.01050566878282411</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01315722335787522</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.05837643995742314</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01027791131832346</v>
+        <v>-0.02349673686539263</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001894284478896896</v>
+        <v>-0.1189162319340324</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03103128451625769</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0.1763417936789596</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.05363959277719888</v>
+        <v>0.02717170699305905</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.03210023092613703</v>
+        <v>0.07008265260948662</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.07842108499549902</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>-0.02278641978096671</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.0008032575362821072</v>
+        <v>-0.04653651181406477</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.01521176858851138</v>
+        <v>-0.1166646606034977</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1702,28 +1702,28 @@
         <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.01765693349276595</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>-0.005481498336917178</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.1860230192882162</v>
+        <v>0.2008055535126371</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1340263229318002</v>
+        <v>0.09391298633215867</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,22 +1732,22 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1588333997134226</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0.006633193721945011</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.002576464248251124</v>
+        <v>-0.03806093890753613</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.006112110330149884</v>
+        <v>-0.02193693455930493</v>
       </c>
       <c r="BH3" t="n">
         <v>-0</v>
@@ -1756,52 +1756,52 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.009712640587676815</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0.03899343110147304</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.06149265800403128</v>
+        <v>-0.01205414052650297</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.07613037902316822</v>
+        <v>0.3006498554134087</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.04604119696085459</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.1096307056207893</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.03221300782721438</v>
+        <v>0.1421868425350084</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1353633078854046</v>
+        <v>-0.07628306544576788</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1810,52 +1810,52 @@
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1584011120814425</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.0007758227681215805</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.05862715675366606</v>
+        <v>-0.01834860736828823</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.05741783737779216</v>
+        <v>0.06657034125120143</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.03451248580910891</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>-0.0255559074515273</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.009929919496128519</v>
+        <v>0.09221771728330862</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.0760796300720341</v>
+        <v>-0.1596158157608103</v>
       </c>
       <c r="CR3" t="n">
         <v>-0</v>
@@ -1864,52 +1864,52 @@
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1077562830046279</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>-0.005655460473038792</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.05652972889004393</v>
+        <v>0.004153497921191774</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.0806857643936764</v>
+        <v>0.05027554504720716</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.03965230322649823</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0.009484008573486309</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.09227024171993944</v>
+        <v>-0.001414971181088745</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.05013386724906899</v>
+        <v>0.01306208789560892</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
@@ -1918,28 +1918,28 @@
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.001771177372081638</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>-0.01257340222205711</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.08410225723122798</v>
+        <v>-0.06748410474515136</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.05891959618037484</v>
+        <v>0.1674290122768674</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,22 +1948,22 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.02472479812964069</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.05360077697838679</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.007849429391837264</v>
+        <v>-0.02120090099364941</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.007344410031913298</v>
+        <v>0.0255894420028676</v>
       </c>
       <c r="EB3" t="n">
         <v>-0</v>
@@ -1975,151 +1975,151 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.05423703437021437</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>-0.0002584784280895621</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04922193947072977</v>
+        <v>-0.04609749073463212</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.006039940500468812</v>
+        <v>-0.02337515335381379</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
         <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.02611196037223604</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0.0196249234214589</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.03831402539750463</v>
+        <v>-0.008439039910776942</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.04330631954504633</v>
+        <v>-0.00798138043992846</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.03518018610909143</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0.01244214858680019</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.06156290410214623</v>
+        <v>-0.004779776682157</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.04824117071471581</v>
+        <v>0.02955777757758325</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.04650841647066737</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0.06779655754249699</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0254802317405211</v>
+        <v>0.05048241391964107</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.05128294223557101</v>
+        <v>0.06280446414071045</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.1154717582734665</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0.03205673298410638</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.01005649449056505</v>
+        <v>0.0009664898682797829</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.002023092099076839</v>
+        <v>0.007023974964147773</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.970583952836539e-06</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.03918818252876251</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.03757997375663838</v>
+        <v>-0.01105861600526938</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.03834094686628076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.1702680342183941</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0154523462285766</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.03750938105714418</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02677026245964424</v>
+        <v>-0.04151177740397298</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07887077338073153</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.04445575573872908</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0219384417997516</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.05792678938622739</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001910143848021013</v>
+        <v>-0.008000713065079445</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02264723584661252</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.1192044707820182</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02315019573220088</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.04289676600986223</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04014034232057329</v>
+        <v>0.06025344419237787</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,133 +2217,133 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.007615573439106302</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.04133870673831443</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01187859625439942</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.02101541921288603</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.0556245518547441</v>
+        <v>-0.0235061069576187</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.04103650107909856</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.03345255109534338</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01907381561375854</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.03577898719404407</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.02667965733817997</v>
+        <v>-0.005584082972208834</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.0008954963278911237</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.324056217410337</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.06919318841285763</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.01356180571905595</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02336548891932656</v>
+        <v>0.1767902254617536</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.1010881406399091</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>-0.001287139071835842</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.001510663878587553</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.03685541381653606</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.002183081262389721</v>
+        <v>-0.04746680849025501</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.00244963349414469</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>-0.0009288281276884004</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0540348975163823</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.08055637825571149</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03126836349152678</v>
+        <v>0.01688265111630071</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,28 +2352,28 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.02440636018486977</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.181521825659493</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.008065202089854142</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.01935646858250013</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01907083579553739</v>
+        <v>0.02593379431716398</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.07689364076452586</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.05625063762045156</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02167303405727056</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.002389776894128779</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.01344829513574871</v>
+        <v>-0.009986047430297663</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,49 +2409,49 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.02355002292354958</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.02185189616310797</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.007655060007917877</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.09550880876112032</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.02524857797591825</v>
+        <v>-0.1325268132514904</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.05773010745041147</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.04842759354443942</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01303482871217562</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.02712311780764276</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.02133487659605238</v>
+        <v>-0.004478396080718345</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2460,25 +2460,25 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.02334248771249673</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.05749569831445638</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.007507425841913029</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.00126642326402304</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.0008134910304604311</v>
+        <v>-0.0004962456823940298</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2490,130 +2490,130 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02334591461987977</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.07837551724248633</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.02127438126702688</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.03484013414967994</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.01835016656184308</v>
+        <v>-0.01928077990777129</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.03437686014067846</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.05145734396617425</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.01673964114349189</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.064335452643265</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01725396816237763</v>
+        <v>-0.01167406410748823</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01710111908368763</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.03201651854765751</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01065474887882464</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.06346051269666618</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.02588666600118226</v>
+        <v>0.005714945954477186</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.02618680498850307</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.02280636339291503</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.00351776707225755</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.02493103171925124</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.03952626825372289</v>
+        <v>0.005139448325726882</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.03788590928776919</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.04718100075590072</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01642099667543888</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.009842821304555344</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.00801352389516807</v>
+        <v>-0.02208396987039721</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,52 +2622,52 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.02675766859011075</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.02196970900495943</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.01786924668365772</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.03867267205531605</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.02348786513424675</v>
+        <v>-0.01372533997481111</v>
       </c>
       <c r="FL4" t="n">
         <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.05161016210662823</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.0005172553760487576</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0.0003229599809821976</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>0.001392519314997309</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0002064382720358841</v>
+        <v>0.0005964273569846559</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
@@ -2679,96 +2679,96 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0004310014532558459</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.005256614517789434</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.01824613815874396</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.01965665283296</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.0173238974292638</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.02910508709710302</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01135391241506579</v>
+        <v>-0.02719018858758708</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.02163269228189662</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01515959564387365</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06698663409664984</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.004610547531083419</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01362684531994435</v>
+        <v>-0.008429574979292991</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0.002868329182419681</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004251386350328467</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02981783255315414</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.005241455588618308</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2777,79 +2777,79 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02788010698928148</v>
+        <v>-0.01600470448164149</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0.01678266665590853</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.03084069019978903</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001108389132975649</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.01517324685152308</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.06154481549215205</v>
+        <v>0.01117262044730659</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.01099134884984442</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02084426096519051</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.0153143044947573</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.00487695612261039</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02336058081401038</v>
+        <v>-0.01059833957154258</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.003896223220294401</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.0003505106338529399</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.00082787858888069</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.03905056867369019</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,187 +2858,187 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.02911476895248264</v>
+        <v>-0.03917404673052311</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.01307948149022929</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0380352361101895</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.08272360510372116</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.00924011178388</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>-0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.02149053351419569</v>
+        <v>-0.006869787526253931</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.0049456055086821</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.006664994347228855</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.003982771129701213</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.02970815190337998</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.02792805807378402</v>
+        <v>0.01267790523371823</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.00518547298531445</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0098759222990312</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.02748933744770719</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.01417225936244665</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.04141045755950638</v>
+        <v>-0.02123172535752216</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>0.004607409079406578</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.005259151268211338</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.05630090369185307</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.003195352772099748</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0001366309891679191</v>
+        <v>0.01021053260391885</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.01191783822372096</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.003108430400159379</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.01547394622812324</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.002527257226687133</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.03736322561265772</v>
+        <v>0.004133818867855252</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.002116796450177274</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.02660408754504067</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.02621379476373266</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>0.001469503369822709</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.00704549552237439</v>
+        <v>0.009823954736655718</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.01569354879975735</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.006613325330764489</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.01851294378322584</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.01108018786274812</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,187 +3047,187 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.01189088368874201</v>
+        <v>0.01252648145789864</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>-0.0009984141758186968</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.002641776114412425</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.007533889125966858</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.006206573797542386</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.03673645452288126</v>
+        <v>0.01659748282713291</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.008572193394684352</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.003133688949695008</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.01673169470567956</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.01193382048173978</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01156585973081588</v>
+        <v>-0.01363156415902247</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0.003605460695087642</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.01310783408452536</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0.003225407438512321</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.001053355074503144</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0305989636905233</v>
+        <v>-0.006599061497596774</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0.01295874462756225</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.01153912998568155</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.02154885835362788</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.007208696664175946</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.02931484718118119</v>
+        <v>0.0213652062083301</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.007893052765281239</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.02759032922721932</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.02097859306113209</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.003852359878142634</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.007845401163364789</v>
+        <v>0.009714600393057994</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.01430589164085029</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.008145966241875802</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.01794027971837417</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.0134204974989969</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.02860746211495416</v>
+        <v>-0.02505046305129288</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.0133901510743258</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.03214810202116265</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.01973914818580797</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.002055784878975518</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,46 +3236,46 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.003522737514365851</v>
+        <v>0.0002465593029455378</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.01778053084848228</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.005477289317554745</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.006638991378849705</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.01462665344449953</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.001880836763509367</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02204695145552682</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.02255108608933837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -3852,70 +3852,70 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.3054775925375885</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09001156822164919</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1191082795987771</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04745284090587804</v>
+        <v>-0.05631157429709471</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1262830265560951</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1361613494817015</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001541475708756892</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.002294733193266919</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001859503668685757</v>
+        <v>-0.04651416039464388</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07285383272263907</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.1143595549848011</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007793990509104659</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.01575117735183796</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04917856968160904</v>
+        <v>0.02237527427974123</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,52 +3924,52 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01263407435087</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.06519253337355251</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.04115408183899455</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.03098705676115913</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.03071668744955184</v>
+        <v>-0.01859109739271969</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.0742353648487533</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.04543501583484815</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.0128754887431841</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.02914749447021231</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02494549021852816</v>
+        <v>-0.01823960084811424</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3981,103 +3981,103 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.008351757306582303</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.4263048451438904</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1822782636772365</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0.01190168392538317</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.04314409103492218</v>
+        <v>0.1743851813085681</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1248971684157548</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.0180580201356551</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.02518968295772524</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.04857090971560243</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002388208751096048</v>
+        <v>-0.0906242266745247</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.01083618018094533</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.04354354019680103</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05553157260599789</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.09497399068913168</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0607549063917764</v>
+        <v>0.01951117325719453</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.02419975103352728</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.2253816151936224</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.02204488376344109</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.002840450104177447</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0503918808560307</v>
+        <v>0.00301629083487002</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4089,22 +4089,22 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.08558791465169745</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.07325416992720549</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.04636487312656479</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.02193371116732339</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.008668772636888599</v>
+        <v>-0.02497859000654235</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4116,49 +4116,49 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.03273877309110283</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02413739557484641</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.003849485981399558</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1193440142098739</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.007320934889306828</v>
+        <v>-0.1460855368436277</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.08931701951443217</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.05983150052954238</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02819504811255918</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.04912537492777535</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.02168255529169215</v>
+        <v>-0.01998605953862091</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4167,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.03608740764661467</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
         <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.04318973332071199</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.01252130144948464</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.007636847418410534</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.001678516361114063</v>
+        <v>-0.0009421275735211564</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,103 +4197,103 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.03313498593741636</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.07059090152147374</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0001902493501922184</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.04332018506972207</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.004113270515668367</v>
+        <v>-0.01252491087629871</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.03161105125735969</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.04471508747890799</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.02091651001994264</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.06160340772463341</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.009778636910924702</v>
+        <v>-0.01418315159675655</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.02896932730405857</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.03293130002343954</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.02993492117090663</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.07300733018646829</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03440173592423815</v>
+        <v>-0.0004210113166899453</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.02922604430102791</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.05337754395756229</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.002635692110742467</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.03542810016146103</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.03259399983203021</v>
+        <v>-0.03352166635560132</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4302,25 +4302,25 @@
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.06263267243208827</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.06690547858157071</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.03394187722540879</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.03036157850960786</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.001117330330637833</v>
+        <v>-0.03255859580208587</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4329,55 +4329,55 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.04518637964653317</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.02122799942109724</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02540514391047248</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.05435224605022811</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.01916743685578746</v>
+        <v>-0.003926436579000847</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.05544495256019845</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>0.006722461319961977</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01784945301453978</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.002227462733589296</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.002891288629634419</v>
+        <v>0.01448848839528436</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
@@ -4386,19 +4386,19 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.001889114590711662</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.007778256790860337</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.007566332319440178</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>-0</v>
+        <v>-0.0204065869253393</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.04065852260813137</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.05609020699536508</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4999,25 +4999,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004116558194077325</v>
+        <v>-0.006731553400387966</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>-0.02458099888582469</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007358717059545564</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07194004174742345</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.01274479621649951</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5026,25 +5026,25 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01208865975717656</v>
+        <v>-0.009567471101721575</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0.004530174398476144</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002335100811240078</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03893011685774405</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>-0.003273098154125832</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5053,133 +5053,133 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.007266034923982019</v>
+        <v>-0.01266405712156691</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0.01808235221986935</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.01603546161451301</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.001447720494994419</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.0185036110552021</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.004776631459262812</v>
+        <v>0.02121369027051047</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.008743981067922364</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.02042161840930905</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.02333298158463772</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01193527285555703</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.004128430955783247</v>
+        <v>-0.003757988168317749</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0.00660101154664889</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.003346114661277297</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.004666651113908567</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.06479596608286443</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0381061481610098</v>
+        <v>-0.01036925531285347</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0.01404454909819755</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.04630409260246746</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.07090664729020676</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.01578535774238352</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>-0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.0172947491237741</v>
+        <v>-0.007241418936256764</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>-0.004172330960384291</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.01021574177067479</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.006123228178740387</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.03340112276164187</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
@@ -5188,52 +5188,52 @@
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.02451100611430695</v>
+        <v>0.01746098336305166</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.01102426060729082</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.00769547450684985</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.005090331458841835</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.02552016778466155</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.03725355407748732</v>
+        <v>-0.02297448037174917</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0.01895051740498904</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0.002593573216932712</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.03506372166581277</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.001136988507668813</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
@@ -5242,25 +5242,25 @@
         <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.006234081719448253</v>
+        <v>-0.003489453634461972</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.01490556899625802</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.006856825615448967</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.007777305913305903</v>
+        <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.01028061799712751</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5269,52 +5269,52 @@
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.0361010099580714</v>
+        <v>0.00569572748687843</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.03027942288783964</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01429529283548755</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.04125754063055728</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>0.0007788391321184633</v>
       </c>
       <c r="CX9" t="n">
         <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.00284452809518925</v>
+        <v>-0.003180062225933485</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0.01803994101648909</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.0006666911017561159</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.01493259383191292</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
         <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.0001501543065914756</v>
       </c>
       <c r="DG9" t="n">
         <v>-0</v>
@@ -5323,187 +5323,187 @@
         <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.02624636275149202</v>
+        <v>0.01680371776748153</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0.01347147892813701</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0195967008916606</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0.001804780266622558</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.0005757055970128839</v>
       </c>
       <c r="DP9" t="n">
         <v>-0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.004816054124978475</v>
+        <v>0.0176099172881384</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0.004516474496740992</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0005833439917202048</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
         <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.01275776864274223</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.02246882419558841</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
         <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.02852943746658417</v>
+        <v>-0.03034961973217785</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>-0.01490270081254944</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.01459328551200438</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.01628475151350676</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>0.0003380305499751253</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.009686784497015544</v>
+        <v>-0.004110566419791475</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.006637382295388534</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.005817759570882823</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.01937538602287995</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.008290549833578376</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.0005720751891436113</v>
+        <v>-0.02479712136755212</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0.03992440018511622</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0.03601287869822786</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.01196916918751349</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>0.004451702128262331</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0007054443603068016</v>
+        <v>-0.004384769836463702</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>0.01923683641701364</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.001861805979728401</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.01124695662130477</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.02083282581496017</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.01690440305385816</v>
+        <v>-0.0310523341654663</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0.005430095008258794</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0.01059777648515306</v>
+        <v>-0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.01597019189459754</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.005566260741981514</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5512,46 +5512,46 @@
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.00621892160296727</v>
+        <v>-0.007680765987871807</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.03130618010069067</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.01001637043121764</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
         <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.006967759713884705</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.01263648518408482</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>-0.006786083501373907</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0.02229571531987175</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.02737626678961792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,70 +5559,70 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.383560706142668</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.05689326527124461</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.09779076190886185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007522276994914211</v>
+        <v>-0.1062480879181889</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09477707574221907</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2025081759917834</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01435216063743774</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>-0.02344589105414722</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02100555540087579</v>
+        <v>-0.09216220952725029</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06364187427485643</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.1005875586742831</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.00261468407887627</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.003118447783553456</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01225208504519001</v>
+        <v>-0.01680217638999137</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
@@ -5631,82 +5631,82 @@
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.009118178424423848</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.08088540882238177</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.02848936928988019</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0.03509322919636021</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01207781696425173</v>
+        <v>-0.02734683607182281</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.03921276387432245</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.04950817015017756</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.007947294361519018</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.03048233692859553</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01708452534662776</v>
+        <v>-0.04663482393539276</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.001958660682029105</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.411187046977498</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.1039416238040969</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0.02477209548057862</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0118318227114324</v>
+        <v>0.1038119313543385</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
         <v>-0</v>
@@ -5715,76 +5715,76 @@
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.08367931950487963</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.03242873186316206</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.01748769868105045</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>-0.02430949363568836</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.003756001853778924</v>
+        <v>-0.1301334062255229</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.005666965255380861</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.05337060940467452</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.02865212554862921</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0.093033764246901</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.04755299705393556</v>
+        <v>0.04711800143635538</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.01461887442799658</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.2162459638265495</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.01655891113947262</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>-0.01159496044515772</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02157911267825166</v>
+        <v>-0.007687215732191862</v>
       </c>
       <c r="BZ10" t="n">
         <v>-0</v>
@@ -5796,22 +5796,22 @@
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.05502842442693012</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.08634950662384012</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.02551094228151121</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>0.01632862301165547</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.004247825245085252</v>
+        <v>-0.004734716443514178</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
@@ -5823,49 +5823,49 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.02074324072542957</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.02071077846781871</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0005289629735152366</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0.07598249753069096</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.009498350244876089</v>
+        <v>-0.1295632325905316</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0449905945086134</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.07007101572090073</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.01471669185581098</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.0443412138974941</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.002637794189569518</v>
+        <v>-0.007757530229774965</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
@@ -5874,28 +5874,28 @@
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.02148255361635341</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.06349524954362808</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.03008487011452135</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0</v>
+        <v>0.05466580901164889</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.002673122669093993</v>
+        <v>-0.0114048404187319</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>-0</v>
@@ -5904,49 +5904,49 @@
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.03987738670787616</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.04451831962517847</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.003879946828535489</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0</v>
+        <v>-0.05078749537672097</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01619376115663912</v>
+        <v>-0.01403833343550674</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
         <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.01763270218876671</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.04348691911394763</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.007915949626758147</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.01530190722358319</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.009072856100951291</v>
+        <v>-0.0103601159932597</v>
       </c>
       <c r="EB10" t="n">
         <v>0</v>
@@ -5955,52 +5955,52 @@
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0.01214386867445643</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.0487483369736842</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.01211634587587234</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>0.0693458095145932</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.02328055997291379</v>
+        <v>0.03615777715312883</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.02049084233742161</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.06925133461797001</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.006431630197040222</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0</v>
+        <v>-0.06869424207499901</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.007356855868646227</v>
+        <v>-0.02575295877904916</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
@@ -6009,25 +6009,25 @@
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.03845262072377676</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.08087613418741739</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.01893247967633223</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0.03563388092658488</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.009987660819875174</v>
+        <v>-0.01809162947725996</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
@@ -6036,52 +6036,52 @@
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.02812837961030934</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
         <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.006142198269857908</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.02330372984593044</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.04810495210678239</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.01898576753601302</v>
+        <v>-0.005162947826171308</v>
       </c>
       <c r="FL10" t="n">
         <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.02381951829387793</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>0.01634764149349967</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.009463467451115594</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0.01258973972723725</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.0007251423298714228</v>
+        <v>0.05020980878519361</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
@@ -6093,19 +6093,19 @@
         <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.003142401704007009</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>0.006822307585686176</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.002963884134595781</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.01629035226653801</v>
       </c>
       <c r="GC10" t="n">
         <v>0</v>
@@ -6114,13 +6114,13 @@
         <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0.02830380303388238</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6149,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -6203,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6230,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -6257,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -6284,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6311,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -6365,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6392,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
@@ -6697,19 +6697,19 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2394487363606619</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02545817635693361</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>-0.02427804863629346</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01786022855797109</v>
+        <v>-0.04359335730758559</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6718,103 +6718,103 @@
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06781971946626549</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.1034008113000108</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005838624268275765</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>0.0006774987288295303</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.01980703317864224</v>
+        <v>-0.03972869078679241</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05493357572738854</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.04393748709792517</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.0003215838632352999</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.01640213388346165</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01100577945614119</v>
+        <v>0.03716836833935172</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02991773186959042</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.04599187026902475</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.02820618001426392</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>-0.002716775718179981</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.01318131980167624</v>
+        <v>0.0002398457050541557</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.03643463409914519</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.01259249517925863</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.003344111959241577</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.0122606295407652</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.01953782585919839</v>
+        <v>-0.03007417396625421</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6826,103 +6826,103 @@
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.001633694090155923</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.2583109022257615</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.03814602900690087</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.02945276465172876</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02696256002106176</v>
+        <v>0.05691293211287889</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.06404540761206363</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.03839292617255124</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.01916969080424362</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>-0.04339649981475312</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.004823245252412046</v>
+        <v>-0.04499530337304288</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0.02241151226570383</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1004711363150834</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.04439204973052572</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.01623420546759293</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.03354775036499043</v>
+        <v>0.08360294370760073</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0.02568503531294653</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.1294351986594725</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.002777359220708082</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.02493859674584921</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0317030509087538</v>
+        <v>0.01959054750795558</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6934,49 +6934,49 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.05656550989307567</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.04390271302808058</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01881486943832888</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0.004568875289444049</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.004173160496884966</v>
+        <v>0.002185501883351689</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0.009846279217138765</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.05535779582160233</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.005362167021015597</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.03408725523941308</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.03903531953724321</v>
+        <v>-0.05830329543965621</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,25 +6985,25 @@
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.04350207527828244</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.02933316682763779</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01977314052190252</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0.006065549474258491</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01504291995240814</v>
+        <v>0.0005974196383930968</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
@@ -7015,25 +7015,25 @@
         <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0.01285917344198165</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.009635321334690297</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.04180915549944831</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0</v>
+        <v>0.04835572460228627</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.001713423699488916</v>
+        <v>0.003595618631672881</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
@@ -7042,25 +7042,25 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.006392960295491992</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.05993834142139291</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.03583382856926354</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-0.003492957242538688</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.006980296257422278</v>
+        <v>-0.01084971455307731</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
@@ -7069,22 +7069,22 @@
         <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0253613531940324</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.0008174821677939163</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.003002985438287063</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.005017558660942205</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01114495187220021</v>
+        <v>-0.02086382434898494</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -7096,154 +7096,154 @@
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0.0187013175490244</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.02640660857914575</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.01059233562079568</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0.001485459922486264</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.022980884969346</v>
+        <v>0.04091658762316984</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0.007361717463366294</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.02163756080775064</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.03085581309105745</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0</v>
+        <v>0.00790756612278333</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01342770067359559</v>
+        <v>0.01302015397924713</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0.02497072779551536</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
         <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.02803482642704527</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01919855920746854</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-8.387832234335623e-05</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.0005592962488502475</v>
+        <v>0.01089699979392158</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0.01956894930051117</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.01552284155236092</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.02558576821596851</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.007694894124199496</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03298855351123241</v>
+        <v>-0.02058781069191494</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
         <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0.04335975991557883</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.03303085630673852</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.00754485614428559</v>
+        <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0.01421006535539592</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0225955493790584</v>
+        <v>0.01029489752183533</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
         <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0.006566396165207877</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.00752952422976018</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.009456087197318368</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.01603825399834916</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
@@ -7255,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0.01915315739660186</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,19 +7266,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.1605399256007014</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1208505712887557</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05704156106359858</v>
+        <v>0.006401278091458649</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.1129777584862777</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7287,133 +7287,133 @@
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2185152518258526</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.09602521437486368</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.04757658679234231</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.04335587788918054</v>
+        <v>-0.002746214388817704</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>-0.067602311936051</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1885683416678967</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.005347641587257957</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.03758026651938084</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1282578083254111</v>
+        <v>-0.01368941298279054</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.005106667552825693</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06830158844661685</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>0.02250904304675931</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.02303141560603064</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.04739534560005418</v>
+        <v>0.01664153072447774</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>-0.008213214468757512</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.1041277910245562</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.002050994031299848</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.01887177878045022</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.01758598838067879</v>
+        <v>-0.01367686387297896</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0.0248580347802393</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01601196043629536</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.1157661655634606</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.09507354789444455</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.04546489632721425</v>
+        <v>-0.002728993117001525</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.05934038852766791</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7422,52 +7422,52 @@
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1158494521672487</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.05420781188733458</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.01703820417724211</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.04393746885054231</v>
+        <v>-0.02108050105511207</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.04388466506577345</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.02649413935915061</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.05513454981070844</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.01343173546616875</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01847871291120769</v>
+        <v>0.03051795212441109</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.008257578638864657</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,187 +7476,187 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.06396159541847404</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.05345725399923137</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.08867350841017391</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0006017673321542232</v>
+        <v>-0.008060293865336032</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.01318256896963498</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1559280372646308</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.03028753042299625</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.03323122757416007</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.005265816712049826</v>
+        <v>-0.004167219635404441</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.02568495419221335</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0.02685206077511638</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.01930011614524742</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.02092999172364845</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.04594728171364575</v>
+        <v>0.02440770132553023</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.01751607024815625</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0449948645301104</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.01892324184590689</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.03922779547331917</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.009718264512732199</v>
+        <v>-0.005227843423275001</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.02457096592502378</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0.03859034803381059</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.008400741825403733</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.02355108005862696</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.0004451905127061166</v>
+        <v>0.001042181085931774</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.003658381387433603</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
         <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.006123230190307277</v>
+        <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.02374218466696766</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0.002417895692927041</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.02814320892102521</v>
+        <v>0.01377858760746663</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.006340237613521035</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
         <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.03962973514793691</v>
+        <v>-0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.000863008966240615</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.03148062139620767</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.01214602049536502</v>
+        <v>-0.01235999970556514</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.005672017873137616</v>
       </c>
       <c r="EC13" t="n">
         <v>-0</v>
@@ -7665,106 +7665,106 @@
         <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.04270592417195712</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
         <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.0150112823882872</v>
       </c>
       <c r="EH13" t="n">
         <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.03820558721797376</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.04851674949017894</v>
+        <v>0.005783313345189981</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.01645489694749085</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0.04025565870727742</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.01700221674095626</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.04298304481903688</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.003539138051262874</v>
+        <v>-0.003395472398401443</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>0.03652472835416433</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0.03670618794822666</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
         <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.02172432569562973</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.02777450026734177</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.002193814406709175</v>
+        <v>0.001725122734990073</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>0.02803664918674889</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0.05251734383649345</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.0004097374204507665</v>
       </c>
       <c r="FI13" t="n">
         <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.00405672618745661</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.04087298620615322</v>
+        <v>-0.01932107035061913</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.01439179446763309</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
@@ -7773,25 +7773,25 @@
         <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0.02993916186084795</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.00998018619863642</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>1.39234256015421e-05</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.001870968071098708</v>
+        <v>-0.01821284096184311</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.001032873764034734</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
@@ -7800,34 +7800,34 @@
         <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0.02340937576467081</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.02131610154347048</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0480583473909048</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.01593156154605987</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.01416843621636923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7835,106 +7835,106 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.3340438755300984</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.09416441235929329</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2006590772958864</v>
+        <v>-0.08111904231008162</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2422647648416063</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3516286122936364</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.2439510602214868</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>-0.09781014033832346</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2555903698048295</v>
+        <v>-0.1240392483071559</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1835382549752724</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.391911513210298</v>
+        <v>-0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0.09713897809282546</v>
       </c>
       <c r="V14" t="n">
-        <v>-0</v>
+        <v>-0.03022541789480143</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09353851153881612</v>
+        <v>0.03176677749928347</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.05224348278557538</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2181852761965029</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>0.06360513665548304</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.04558846543739795</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1415199585688706</v>
+        <v>0.03628686871525748</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.04013159681727405</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.06658693107528323</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
@@ -7946,76 +7946,76 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>-0.01393048296128684</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0</v>
+        <v>-0.03360813812514041</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.1477535392111171</v>
+        <v>-0.0666349040389084</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.02169478705138811</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.02997486468238097</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0.1655788476775633</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0.01560045412525943</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.06687737941806439</v>
+        <v>0.1642227990489524</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.17386162866209</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
         <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.1544706904458407</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>0.08415802079344267</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>-0.02065491138110848</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1685249418136048</v>
+        <v>-0.08397722680833761</v>
       </c>
       <c r="BH14" t="n">
-        <v>-5.072767146731002e-05</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.1084067018345539</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -8027,22 +8027,22 @@
         <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0.03824546883659527</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0</v>
+        <v>0.05864867197975188</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.02181014453555383</v>
+        <v>0.1319784780534426</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.05042417165209191</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0.03973807446926603</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8054,25 +8054,25 @@
         <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0</v>
+        <v>0.06562010493383454</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0</v>
+        <v>-0.02637017692956205</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.08058524562251003</v>
+        <v>0.09752204316394178</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0.1138443994243321</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1577422784017398</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>-0</v>
@@ -8081,22 +8081,22 @@
         <v>-0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>-0.07244843748921474</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0</v>
+        <v>0.02329392070746626</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.06345656667334885</v>
+        <v>0.004758822241223395</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.0613715641950506</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>-0.07592613347560297</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
         <v>-0</v>
@@ -8105,109 +8105,109 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0.01749784617661943</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>-0.01983367966106321</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.07227419619228438</v>
+        <v>-0.124424635823879</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0.07652415998237477</v>
+        <v>-0</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0.03233861461889703</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
         <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0.0556852036998321</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>0.02373085443441363</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.05276205846480799</v>
+        <v>0.02886582948563264</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.05746370265527912</v>
+        <v>-0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0.1031181017839084</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
         <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0</v>
+        <v>-0.03595593492190684</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>0.03963889953411061</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.02611731589668152</v>
+        <v>-0.002940690298625722</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.04608221684941247</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.00893820616735254</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
         <v>-0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
         <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>-0.003922390200513025</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0</v>
+        <v>0.02451794197222971</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.05236464703213743</v>
+        <v>-0.1321886685058069</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.01347782330638335</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0.05460543547245415</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
         <v>-0</v>
@@ -8216,130 +8216,130 @@
         <v>0</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0.06371467190210452</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>0.003426352596941492</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.005958804126779464</v>
+        <v>-0.06852304782435122</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.02253798891392984</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.009940082817054385</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>-0.1119081560373049</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0.04692045356474604</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.04236423826814117</v>
+        <v>0.0602954127677601</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.06963247864674385</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0.04321626299010767</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>-0.007098793659395275</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0</v>
+        <v>0.02726167522552808</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.1049438098140165</v>
+        <v>0.02401818202475038</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.06478650094619001</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.07476286637475575</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>-0.06942897416451115</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0</v>
+        <v>0.03771866476456184</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.0679245462388524</v>
+        <v>0.02821617680824693</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.06478317494660318</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>-0.1088382595931621</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
         <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>-0.00704193741859249</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0</v>
+        <v>0.008856894008899628</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.008339588703007252</v>
+        <v>0.07422186497351735</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.01074645620012596</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0.05619584769240101</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,55 +8348,55 @@
         <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>-0.006097050541471913</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0</v>
+        <v>-0.006314526016534962</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.06209163942092706</v>
+        <v>0.07116569187210106</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0.01304594047614287</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0.0147061866741089</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA14" t="n">
-        <v>0</v>
+        <v>0.04932868410382176</v>
       </c>
       <c r="GB14" t="n">
-        <v>0</v>
+        <v>-0.04668623404967054</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0.03234959735176565</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.002384543814459928</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8404,79 +8404,79 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.1826481596684845</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1333135791874876</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1719645853648796</v>
+        <v>-0.08032578134935006</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.06736872531833712</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4840908913226358</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1116275671928374</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.06899880236213127</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1829995732614145</v>
+        <v>-0.04754352768779612</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>-0.03457818057300548</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5036821292182213</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.01933184771205974</v>
       </c>
       <c r="U15" t="n">
         <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.06534099348113954</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1383359419440391</v>
+        <v>-0.03079747761225275</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0.02889448121022397</v>
       </c>
       <c r="Y15" t="n">
         <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.2053669610029693</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -8485,160 +8485,160 @@
         <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.03720111347725556</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.05262168011521781</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.008519953896737383</v>
+        <v>0.02555565233532337</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>-0.002689175338362269</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.03456793680764566</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.02947520652860531</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.01253314805125143</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.1252240779123749</v>
+        <v>-0.01886626861178974</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0.02868882975935926</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.06157966092518455</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.1196566491650138</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.03555931642002381</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1338172693223585</v>
+        <v>-0.06333870851599262</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.0525529343728259</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.33152590826367</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.04133276380410803</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.04773659894962341</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.01339377316076004</v>
+        <v>-0.03363049694627965</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.007320072729079695</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.08218111346168371</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.05425161671165871</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.02003736321590677</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.03205172391342355</v>
+        <v>0.03093411696230106</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>0.02106941754549382</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0.1187964673750756</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
         <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>0.07167540801944061</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.02384265549030433</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.09838522795016021</v>
+        <v>-0.03638090549367472</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0.008993454881275377</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.2620253794007854</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
         <v>-0</v>
@@ -8647,25 +8647,25 @@
         <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.02989385899019151</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.03051508841948876</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.07125334152953135</v>
+        <v>0.01021494927292516</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0.01933616188219326</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0.1031585068309803</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -8674,52 +8674,52 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.0002021315170799533</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.06538446636977865</v>
+        <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.1749869808008176</v>
+        <v>-0.006881199366425569</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.02803817581634797</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>-0.06955313958775466</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.02229336698430819</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.03731306112826582</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.09001999533003847</v>
+        <v>0.006184657115176152</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>0.0279594134279581</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0.1204558829942233</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
@@ -8728,52 +8728,52 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.01210890107323239</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.03248849190425978</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.03024602676948196</v>
+        <v>0.0104433278268914</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>-0.003805924586018734</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-0.0203690915638034</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.02789640592226996</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.07239290205683983</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.006851165770899088</v>
+        <v>0.02880624034901601</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0.0261480629616661</v>
       </c>
       <c r="DT15" t="n">
         <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0.01821802915668281</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
         <v>-0</v>
@@ -8782,187 +8782,187 @@
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0.006299221443539146</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.01247512797805081</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.07155767615460937</v>
+        <v>-0.02702179783471992</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0.01077363923906738</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.04494940104765801</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF15" t="n">
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.0161834078165294</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.09623074591191953</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.04234543540422332</v>
+        <v>0.0190889435468605</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.008616091625739248</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0.1699175101621547</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-3.32959205691918e-05</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0.09453668684130079</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.1463758457109678</v>
+        <v>-0.01568123658661064</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.0291336858628004</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0756706754865715</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
         <v>-0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.01813252205631794</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.03445961159917316</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.0743521313197926</v>
+        <v>0.003363616887637702</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0.02792489609943506</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0.126788373476713</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.02403887670226089</v>
       </c>
       <c r="FI15" t="n">
         <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.04261789622111703</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.08445714051336563</v>
+        <v>-0.04098436695841654</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>0.01539176755738058</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>-0.07100585505668469</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>0.001885433809501707</v>
       </c>
       <c r="FR15" t="n">
         <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.07136965469872597</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.001703326496465665</v>
+        <v>0.001371597360001756</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0.01834722825024067</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0.01874339089913224</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>-0.02459857039447088</v>
       </c>
       <c r="GA15" t="n">
         <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>-0.04567133079220159</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>-0.02231485745684398</v>
       </c>
       <c r="GE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.03963356850325653</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
         <v>0</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -8994,10 +8994,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -9048,10 +9048,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9075,10 +9075,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -9129,10 +9129,10 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
@@ -9156,10 +9156,10 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
         <v>0</v>
@@ -9183,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
@@ -9210,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN16" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
@@ -9399,10 +9399,10 @@
         <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP16" t="n">
         <v>0</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY16" t="n">
         <v>0</v>
@@ -9453,10 +9453,10 @@
         <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ16" t="n">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>0</v>
